--- a/src/main/resources/测试数据.xlsx
+++ b/src/main/resources/测试数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\BiSystem\shierbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B8929-27A8-4346-AAB3-1EF22A584BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B23A1-9D34-4847-94EC-85AB6F869540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="5085" yWindow="1185" windowWidth="21600" windowHeight="11295" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,6 +55,22 @@
   </si>
   <si>
     <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
@@ -489,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -507,7 +513,39 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/测试数据.xlsx
+++ b/src/main/resources/测试数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\BiSystem\shierbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B23A1-9D34-4847-94EC-85AB6F869540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB04986-587D-402F-A3DB-20F5D32DD432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1185" windowWidth="21600" windowHeight="11295" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,132 @@
   <si>
     <t>7号</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
+  </si>
+  <si>
+    <t>10号</t>
+  </si>
+  <si>
+    <t>11号</t>
+  </si>
+  <si>
+    <t>12号</t>
+  </si>
+  <si>
+    <t>13号</t>
+  </si>
+  <si>
+    <t>14号</t>
+  </si>
+  <si>
+    <t>15号</t>
+  </si>
+  <si>
+    <t>16号</t>
+  </si>
+  <si>
+    <t>17号</t>
+  </si>
+  <si>
+    <t>18号</t>
+  </si>
+  <si>
+    <t>19号</t>
+  </si>
+  <si>
+    <t>20号</t>
+  </si>
+  <si>
+    <t>21号</t>
+  </si>
+  <si>
+    <t>22号</t>
+  </si>
+  <si>
+    <t>23号</t>
+  </si>
+  <si>
+    <t>24号</t>
+  </si>
+  <si>
+    <t>25号</t>
+  </si>
+  <si>
+    <t>26号</t>
+  </si>
+  <si>
+    <t>27号</t>
+  </si>
+  <si>
+    <t>28号</t>
+  </si>
+  <si>
+    <t>29号</t>
+  </si>
+  <si>
+    <t>30号</t>
+  </si>
+  <si>
+    <t>31号</t>
+  </si>
+  <si>
+    <t>32号</t>
+  </si>
+  <si>
+    <t>33号</t>
+  </si>
+  <si>
+    <t>34号</t>
+  </si>
+  <si>
+    <t>35号</t>
+  </si>
+  <si>
+    <t>36号</t>
+  </si>
+  <si>
+    <t>37号</t>
+  </si>
+  <si>
+    <t>38号</t>
+  </si>
+  <si>
+    <t>39号</t>
+  </si>
+  <si>
+    <t>40号</t>
+  </si>
+  <si>
+    <t>41号</t>
+  </si>
+  <si>
+    <t>42号</t>
+  </si>
+  <si>
+    <t>43号</t>
+  </si>
+  <si>
+    <t>44号</t>
+  </si>
+  <si>
+    <t>45号</t>
+  </si>
+  <si>
+    <t>46号</t>
+  </si>
+  <si>
+    <t>47号</t>
+  </si>
+  <si>
+    <t>48号</t>
+  </si>
+  <si>
+    <t>49号</t>
   </si>
 </sst>
 </file>
@@ -469,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
@@ -545,7 +671,343 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/测试数据.xlsx
+++ b/src/main/resources/测试数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\BiSystem\shierbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB04986-587D-402F-A3DB-20F5D32DD432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC01C3E-3323-4571-A617-9E2720B51ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,159 +45,96 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>号</t>
+      <t>天</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8号</t>
-  </si>
-  <si>
-    <t>9号</t>
-  </si>
-  <si>
-    <t>10号</t>
-  </si>
-  <si>
-    <t>11号</t>
-  </si>
-  <si>
-    <t>12号</t>
-  </si>
-  <si>
-    <t>13号</t>
-  </si>
-  <si>
-    <t>14号</t>
-  </si>
-  <si>
-    <t>15号</t>
-  </si>
-  <si>
-    <t>16号</t>
-  </si>
-  <si>
-    <t>17号</t>
-  </si>
-  <si>
-    <t>18号</t>
-  </si>
-  <si>
-    <t>19号</t>
-  </si>
-  <si>
-    <t>20号</t>
-  </si>
-  <si>
-    <t>21号</t>
-  </si>
-  <si>
-    <t>22号</t>
-  </si>
-  <si>
-    <t>23号</t>
-  </si>
-  <si>
-    <t>24号</t>
-  </si>
-  <si>
-    <t>25号</t>
-  </si>
-  <si>
-    <t>26号</t>
-  </si>
-  <si>
-    <t>27号</t>
-  </si>
-  <si>
-    <t>28号</t>
-  </si>
-  <si>
-    <t>29号</t>
-  </si>
-  <si>
-    <t>30号</t>
-  </si>
-  <si>
-    <t>31号</t>
-  </si>
-  <si>
-    <t>32号</t>
-  </si>
-  <si>
-    <t>33号</t>
-  </si>
-  <si>
-    <t>34号</t>
-  </si>
-  <si>
-    <t>35号</t>
-  </si>
-  <si>
-    <t>36号</t>
-  </si>
-  <si>
-    <t>37号</t>
-  </si>
-  <si>
-    <t>38号</t>
-  </si>
-  <si>
-    <t>39号</t>
-  </si>
-  <si>
-    <t>40号</t>
-  </si>
-  <si>
-    <t>41号</t>
-  </si>
-  <si>
-    <t>42号</t>
-  </si>
-  <si>
-    <t>43号</t>
-  </si>
-  <si>
-    <t>44号</t>
-  </si>
-  <si>
-    <t>45号</t>
-  </si>
-  <si>
-    <t>46号</t>
-  </si>
-  <si>
-    <t>47号</t>
-  </si>
-  <si>
-    <t>48号</t>
-  </si>
-  <si>
-    <t>49号</t>
+    <t>2天</t>
+  </si>
+  <si>
+    <t>3天</t>
+  </si>
+  <si>
+    <t>4天</t>
+  </si>
+  <si>
+    <t>5天</t>
+  </si>
+  <si>
+    <t>6天</t>
+  </si>
+  <si>
+    <t>7天</t>
+  </si>
+  <si>
+    <t>8天</t>
+  </si>
+  <si>
+    <t>9天</t>
+  </si>
+  <si>
+    <t>10天</t>
+  </si>
+  <si>
+    <t>11天</t>
+  </si>
+  <si>
+    <t>12天</t>
+  </si>
+  <si>
+    <t>13天</t>
+  </si>
+  <si>
+    <t>14天</t>
+  </si>
+  <si>
+    <t>15天</t>
+  </si>
+  <si>
+    <t>16天</t>
+  </si>
+  <si>
+    <t>17天</t>
+  </si>
+  <si>
+    <t>18天</t>
+  </si>
+  <si>
+    <t>19天</t>
+  </si>
+  <si>
+    <t>20天</t>
+  </si>
+  <si>
+    <t>21天</t>
+  </si>
+  <si>
+    <t>22天</t>
+  </si>
+  <si>
+    <t>23天</t>
+  </si>
+  <si>
+    <t>24天</t>
+  </si>
+  <si>
+    <t>25天</t>
+  </si>
+  <si>
+    <t>26天</t>
+  </si>
+  <si>
+    <t>27天</t>
+  </si>
+  <si>
+    <t>28天</t>
+  </si>
+  <si>
+    <t>29天</t>
+  </si>
+  <si>
+    <t>30天</t>
   </si>
 </sst>
 </file>
@@ -595,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
@@ -858,158 +795,6 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>4523</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>4234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>222</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/测试数据.xlsx
+++ b/src/main/resources/测试数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\BiSystem\shierbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC01C3E-3323-4571-A617-9E2720B51ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3404B-8273-428C-92C3-B64CD79960A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="4950" yWindow="270" windowWidth="21105" windowHeight="15930" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>210</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>676</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>181</v>
+        <v>981</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>645</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -632,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>583</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>184</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -648,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>185</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>186</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -664,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>387</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>188</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -680,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>189</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -688,7 +688,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>190</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -696,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>191</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -704,7 +704,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -712,7 +712,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>193</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -720,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>194</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>455</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -736,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>43</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -744,7 +744,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>197</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -752,7 +752,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>198</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -768,7 +768,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -776,7 +776,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>201</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -784,7 +784,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>202</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -792,7 +792,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>203</v>
+        <v>1203</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/测试数据.xlsx
+++ b/src/main/resources/测试数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\BiSystem\shierbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3404B-8273-428C-92C3-B64CD79960A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA56E21-8FC7-44A5-A9B1-2754184CD83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4950" yWindow="270" windowWidth="21105" windowHeight="15930" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -35,106 +35,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天</t>
-    </r>
+    <t>2天</t>
+  </si>
+  <si>
+    <t>3天</t>
+  </si>
+  <si>
+    <t>4天</t>
+  </si>
+  <si>
+    <t>5天</t>
+  </si>
+  <si>
+    <t>6天</t>
+  </si>
+  <si>
+    <t>7天</t>
+  </si>
+  <si>
+    <t>8天</t>
+  </si>
+  <si>
+    <t>9天</t>
+  </si>
+  <si>
+    <t>10天</t>
+  </si>
+  <si>
+    <t>11天</t>
+  </si>
+  <si>
+    <t>12天</t>
+  </si>
+  <si>
+    <t>13天</t>
+  </si>
+  <si>
+    <t>14天</t>
+  </si>
+  <si>
+    <t>15天</t>
+  </si>
+  <si>
+    <t>16天</t>
+  </si>
+  <si>
+    <t>17天</t>
+  </si>
+  <si>
+    <t>18天</t>
+  </si>
+  <si>
+    <t>19天</t>
+  </si>
+  <si>
+    <t>20天</t>
+  </si>
+  <si>
+    <t>21天</t>
+  </si>
+  <si>
+    <t>22天</t>
+  </si>
+  <si>
+    <t>23天</t>
+  </si>
+  <si>
+    <t>24天</t>
+  </si>
+  <si>
+    <t>25天</t>
+  </si>
+  <si>
+    <t>26天</t>
+  </si>
+  <si>
+    <t>27天</t>
+  </si>
+  <si>
+    <t>28天</t>
+  </si>
+  <si>
+    <t>29天</t>
+  </si>
+  <si>
+    <t>30天</t>
+  </si>
+  <si>
+    <t>1天</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-  </si>
-  <si>
-    <t>3天</t>
-  </si>
-  <si>
-    <t>4天</t>
-  </si>
-  <si>
-    <t>5天</t>
-  </si>
-  <si>
-    <t>6天</t>
-  </si>
-  <si>
-    <t>7天</t>
-  </si>
-  <si>
-    <t>8天</t>
-  </si>
-  <si>
-    <t>9天</t>
-  </si>
-  <si>
-    <t>10天</t>
-  </si>
-  <si>
-    <t>11天</t>
-  </si>
-  <si>
-    <t>12天</t>
-  </si>
-  <si>
-    <t>13天</t>
-  </si>
-  <si>
-    <t>14天</t>
-  </si>
-  <si>
-    <t>15天</t>
-  </si>
-  <si>
-    <t>16天</t>
-  </si>
-  <si>
-    <t>17天</t>
-  </si>
-  <si>
-    <t>18天</t>
-  </si>
-  <si>
-    <t>19天</t>
-  </si>
-  <si>
-    <t>20天</t>
-  </si>
-  <si>
-    <t>21天</t>
-  </si>
-  <si>
-    <t>22天</t>
-  </si>
-  <si>
-    <t>23天</t>
-  </si>
-  <si>
-    <t>24天</t>
-  </si>
-  <si>
-    <t>25天</t>
-  </si>
-  <si>
-    <t>26天</t>
-  </si>
-  <si>
-    <t>27天</t>
-  </si>
-  <si>
-    <t>28天</t>
-  </si>
-  <si>
-    <t>29天</t>
-  </si>
-  <si>
-    <t>30天</t>
   </si>
 </sst>
 </file>
@@ -535,7 +524,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
@@ -554,10 +543,10 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
         <v>110</v>
       </c>
       <c r="C2" s="3"/>
@@ -565,7 +554,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>550</v>
@@ -573,7 +562,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>610</v>
@@ -581,7 +570,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>800</v>
@@ -589,7 +578,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>910</v>
@@ -597,7 +586,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>950</v>
@@ -605,7 +594,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>976</v>
@@ -613,7 +602,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>981</v>
@@ -621,7 +610,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1645</v>
@@ -629,7 +618,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2583</v>
@@ -637,7 +626,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1184</v>
@@ -645,7 +634,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2185</v>
@@ -653,7 +642,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2186</v>
@@ -661,7 +650,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>3387</v>
@@ -669,7 +658,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>2188</v>
@@ -677,7 +666,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1189</v>
@@ -685,7 +674,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>3190</v>
@@ -693,7 +682,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2191</v>
@@ -701,7 +690,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>2592</v>
@@ -709,7 +698,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2193</v>
@@ -717,7 +706,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>3194</v>
@@ -725,7 +714,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1455</v>
@@ -733,7 +722,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2143</v>
@@ -741,7 +730,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1197</v>
@@ -749,7 +738,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1198</v>
@@ -757,7 +746,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>2343</v>
@@ -765,7 +754,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1200</v>
@@ -773,7 +762,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1201</v>
@@ -781,7 +770,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1202</v>
@@ -789,7 +778,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1203</v>
